--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -86,18 +98,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H2">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q2">
-        <v>93.54850237810541</v>
+        <v>4.160892599164334</v>
       </c>
       <c r="R2">
-        <v>93.54850237810541</v>
+        <v>37.448033392479</v>
       </c>
       <c r="S2">
-        <v>0.005927803925389289</v>
+        <v>0.0002200646918891632</v>
       </c>
       <c r="T2">
-        <v>0.005927803925389289</v>
+        <v>0.0002200646918891633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H3">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N3">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q3">
-        <v>1854.514253780402</v>
+        <v>66.63272228224568</v>
       </c>
       <c r="R3">
-        <v>1854.514253780402</v>
+        <v>599.694500540211</v>
       </c>
       <c r="S3">
-        <v>0.1175133390037334</v>
+        <v>0.003524125929547802</v>
       </c>
       <c r="T3">
-        <v>0.1175133390037334</v>
+        <v>0.003524125929547803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H4">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N4">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q4">
-        <v>1716.788348961617</v>
+        <v>90.53850243476201</v>
       </c>
       <c r="R4">
-        <v>1716.788348961617</v>
+        <v>814.8465219128581</v>
       </c>
       <c r="S4">
-        <v>0.1087861852978108</v>
+        <v>0.00478847438802283</v>
       </c>
       <c r="T4">
-        <v>0.1087861852978108</v>
+        <v>0.004788474388022831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H5">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I5">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J5">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N5">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q5">
-        <v>1645.782339272164</v>
+        <v>58.89356533926966</v>
       </c>
       <c r="R5">
-        <v>1645.782339272164</v>
+        <v>530.0420880534269</v>
       </c>
       <c r="S5">
-        <v>0.1042868112590675</v>
+        <v>0.003114811065597709</v>
       </c>
       <c r="T5">
-        <v>0.1042868112590675</v>
+        <v>0.00311481106559771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H6">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I6">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J6">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N6">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O6">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P6">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q6">
-        <v>7330.282663510899</v>
+        <v>264.9685836952004</v>
       </c>
       <c r="R6">
-        <v>7330.282663510899</v>
+        <v>2384.717253256803</v>
       </c>
       <c r="S6">
-        <v>0.4644914375149079</v>
+        <v>0.01401387523025784</v>
       </c>
       <c r="T6">
-        <v>0.4644914375149079</v>
+        <v>0.01401387523025784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H7">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I7">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J7">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N7">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O7">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P7">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q7">
-        <v>600.2520126860464</v>
+        <v>22.091922938267</v>
       </c>
       <c r="R7">
-        <v>600.2520126860464</v>
+        <v>198.827306444403</v>
       </c>
       <c r="S7">
-        <v>0.03803563014447511</v>
+        <v>0.001168415694177079</v>
       </c>
       <c r="T7">
-        <v>0.03803563014447511</v>
+        <v>0.001168415694177079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J8">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N8">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q8">
-        <v>17.94602444779325</v>
+        <v>118.6535764164725</v>
       </c>
       <c r="R8">
-        <v>17.94602444779325</v>
+        <v>1067.882187748252</v>
       </c>
       <c r="S8">
-        <v>0.001137169612152539</v>
+        <v>0.006275447422238795</v>
       </c>
       <c r="T8">
-        <v>0.001137169612152539</v>
+        <v>0.006275447422238797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J9">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N9">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q9">
-        <v>355.7636658105758</v>
+        <v>1900.123739493275</v>
       </c>
       <c r="R9">
-        <v>355.7636658105758</v>
+        <v>17101.11365543947</v>
       </c>
       <c r="S9">
-        <v>0.02254335666624624</v>
+        <v>0.1004952988613195</v>
       </c>
       <c r="T9">
-        <v>0.02254335666624624</v>
+        <v>0.1004952988613195</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H10">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I10">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J10">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N10">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q10">
-        <v>329.342799712875</v>
+        <v>2581.82994664019</v>
       </c>
       <c r="R10">
-        <v>329.342799712875</v>
+        <v>23236.4695197617</v>
       </c>
       <c r="S10">
-        <v>0.02086916937532504</v>
+        <v>0.136549934461586</v>
       </c>
       <c r="T10">
-        <v>0.02086916937532504</v>
+        <v>0.1365499344615861</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H11">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I11">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J11">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N11">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q11">
-        <v>315.7212498918337</v>
+        <v>1679.431032856986</v>
       </c>
       <c r="R11">
-        <v>315.7212498918337</v>
+        <v>15114.87929571288</v>
       </c>
       <c r="S11">
-        <v>0.02000602486262408</v>
+        <v>0.08882312243988186</v>
       </c>
       <c r="T11">
-        <v>0.02000602486262408</v>
+        <v>0.08882312243988187</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H12">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I12">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J12">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N12">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O12">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P12">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q12">
-        <v>1406.21633211084</v>
+        <v>7555.943669336041</v>
       </c>
       <c r="R12">
-        <v>1406.21633211084</v>
+        <v>68003.49302402437</v>
       </c>
       <c r="S12">
-        <v>0.08910644726028362</v>
+        <v>0.3996249304435934</v>
       </c>
       <c r="T12">
-        <v>0.08910644726028362</v>
+        <v>0.3996249304435935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H13">
+        <v>34.046756</v>
+      </c>
+      <c r="I13">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J13">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N13">
+        <v>166.530819</v>
+      </c>
+      <c r="O13">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P13">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q13">
+        <v>629.9815734414628</v>
+      </c>
+      <c r="R13">
+        <v>5669.834160973164</v>
+      </c>
+      <c r="S13">
+        <v>0.03331898085595608</v>
+      </c>
+      <c r="T13">
+        <v>0.03331898085595608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.119535</v>
+      </c>
+      <c r="H14">
+        <v>0.358605</v>
+      </c>
+      <c r="I14">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J14">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.45505566666667</v>
+      </c>
+      <c r="N14">
+        <v>31.365167</v>
+      </c>
+      <c r="O14">
+        <v>0.008202258778219224</v>
+      </c>
+      <c r="P14">
+        <v>0.008202258778219226</v>
+      </c>
+      <c r="Q14">
+        <v>1.249745079115</v>
+      </c>
+      <c r="R14">
+        <v>11.247705712035</v>
+      </c>
+      <c r="S14">
+        <v>6.609754018420852E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.609754018420855E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.119535</v>
+      </c>
+      <c r="H15">
+        <v>0.358605</v>
+      </c>
+      <c r="I15">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J15">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N15">
+        <v>502.283203</v>
+      </c>
+      <c r="O15">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="P15">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="Q15">
+        <v>20.013474223535</v>
+      </c>
+      <c r="R15">
+        <v>180.121268011815</v>
+      </c>
+      <c r="S15">
+        <v>0.001058488998134315</v>
+      </c>
+      <c r="T15">
+        <v>0.001058488998134315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.119535</v>
+      </c>
+      <c r="H16">
+        <v>0.358605</v>
+      </c>
+      <c r="I16">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J16">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>227.495678</v>
+      </c>
+      <c r="N16">
+        <v>682.487034</v>
+      </c>
+      <c r="O16">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="P16">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="Q16">
+        <v>27.19369586973</v>
+      </c>
+      <c r="R16">
+        <v>244.74326282757</v>
+      </c>
+      <c r="S16">
+        <v>0.001438242434832765</v>
+      </c>
+      <c r="T16">
+        <v>0.001438242434832765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.119535</v>
+      </c>
+      <c r="H17">
+        <v>0.358605</v>
+      </c>
+      <c r="I17">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J17">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="N17">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="P17">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="Q17">
+        <v>17.688979400495</v>
+      </c>
+      <c r="R17">
+        <v>159.200814604455</v>
+      </c>
+      <c r="S17">
+        <v>0.000935549214220404</v>
+      </c>
+      <c r="T17">
+        <v>0.0009355492142204045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.119535</v>
+      </c>
+      <c r="H18">
+        <v>0.358605</v>
+      </c>
+      <c r="I18">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J18">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="N18">
+        <v>1997.356019</v>
+      </c>
+      <c r="O18">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="P18">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="Q18">
+        <v>79.584650577055</v>
+      </c>
+      <c r="R18">
+        <v>716.2618551934951</v>
+      </c>
+      <c r="S18">
+        <v>0.004209138109420022</v>
+      </c>
+      <c r="T18">
+        <v>0.004209138109420024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.119535</v>
+      </c>
+      <c r="H19">
+        <v>0.358605</v>
+      </c>
+      <c r="I19">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J19">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N19">
+        <v>166.530819</v>
+      </c>
+      <c r="O19">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P19">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q19">
+        <v>6.635420483055</v>
+      </c>
+      <c r="R19">
+        <v>59.718784347495</v>
+      </c>
+      <c r="S19">
+        <v>0.0003509395470702151</v>
+      </c>
+      <c r="T19">
+        <v>0.0003509395470702152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.372081</v>
+      </c>
+      <c r="I20">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J20">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.45505566666667</v>
+      </c>
+      <c r="N20">
+        <v>31.365167</v>
+      </c>
+      <c r="O20">
+        <v>0.008202258778219224</v>
+      </c>
+      <c r="P20">
+        <v>0.008202258778219226</v>
+      </c>
+      <c r="Q20">
+        <v>4.781727744725223</v>
+      </c>
+      <c r="R20">
+        <v>43.035549702527</v>
+      </c>
+      <c r="S20">
+        <v>0.0002528999289845067</v>
+      </c>
+      <c r="T20">
+        <v>0.0002528999289845068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="H13">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="I13">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="J13">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="N13">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="O13">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="P13">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="Q13">
-        <v>115.1502912463734</v>
-      </c>
-      <c r="R13">
-        <v>115.1502912463734</v>
-      </c>
-      <c r="S13">
-        <v>0.007296625077984452</v>
-      </c>
-      <c r="T13">
-        <v>0.007296625077984452</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.372081</v>
+      </c>
+      <c r="I21">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J21">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N21">
+        <v>502.283203</v>
+      </c>
+      <c r="O21">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="P21">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="Q21">
+        <v>76.57480438393813</v>
+      </c>
+      <c r="R21">
+        <v>689.1732394554431</v>
+      </c>
+      <c r="S21">
+        <v>0.004049950901546629</v>
+      </c>
+      <c r="T21">
+        <v>0.00404995090154663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.372081</v>
+      </c>
+      <c r="I22">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J22">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>227.495678</v>
+      </c>
+      <c r="N22">
+        <v>682.487034</v>
+      </c>
+      <c r="O22">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="P22">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="Q22">
+        <v>104.0474991219727</v>
+      </c>
+      <c r="R22">
+        <v>936.4274920977541</v>
+      </c>
+      <c r="S22">
+        <v>0.005502949256780511</v>
+      </c>
+      <c r="T22">
+        <v>0.005502949256780513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.372081</v>
+      </c>
+      <c r="I23">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J23">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="N23">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="P23">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="Q23">
+        <v>67.68090948205011</v>
+      </c>
+      <c r="R23">
+        <v>609.128185338451</v>
+      </c>
+      <c r="S23">
+        <v>0.003579563311712738</v>
+      </c>
+      <c r="T23">
+        <v>0.003579563311712739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.372081</v>
+      </c>
+      <c r="I24">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J24">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="N24">
+        <v>1997.356019</v>
+      </c>
+      <c r="O24">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="P24">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="Q24">
+        <v>304.5038048783933</v>
+      </c>
+      <c r="R24">
+        <v>2740.534243905539</v>
+      </c>
+      <c r="S24">
+        <v>0.01610484635270321</v>
+      </c>
+      <c r="T24">
+        <v>0.01610484635270321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.372081</v>
+      </c>
+      <c r="I25">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J25">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N25">
+        <v>166.530819</v>
+      </c>
+      <c r="O25">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P25">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q25">
+        <v>25.38819696270434</v>
+      </c>
+      <c r="R25">
+        <v>228.493772664339</v>
+      </c>
+      <c r="S25">
+        <v>0.001342751731525349</v>
+      </c>
+      <c r="T25">
+        <v>0.00134275173152535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.391799</v>
+      </c>
+      <c r="I26">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J26">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.45505566666667</v>
+      </c>
+      <c r="N26">
+        <v>31.365167</v>
+      </c>
+      <c r="O26">
+        <v>0.008202258778219224</v>
+      </c>
+      <c r="P26">
+        <v>0.008202258778219226</v>
+      </c>
+      <c r="Q26">
+        <v>1.365426785048111</v>
+      </c>
+      <c r="R26">
+        <v>12.288841065433</v>
+      </c>
+      <c r="S26">
+        <v>7.221580888898013E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.221580888898014E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.391799</v>
+      </c>
+      <c r="I27">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J27">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N27">
+        <v>502.283203</v>
+      </c>
+      <c r="O27">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="P27">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="Q27">
+        <v>21.86600629468856</v>
+      </c>
+      <c r="R27">
+        <v>196.794056652197</v>
+      </c>
+      <c r="S27">
+        <v>0.001156467229904843</v>
+      </c>
+      <c r="T27">
+        <v>0.001156467229904844</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.391799</v>
+      </c>
+      <c r="I28">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J28">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>227.495678</v>
+      </c>
+      <c r="N28">
+        <v>682.487034</v>
+      </c>
+      <c r="O28">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="P28">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="Q28">
+        <v>29.71085971490733</v>
+      </c>
+      <c r="R28">
+        <v>267.397737434166</v>
+      </c>
+      <c r="S28">
+        <v>0.001571372255615629</v>
+      </c>
+      <c r="T28">
+        <v>0.001571372255615629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.391799</v>
+      </c>
+      <c r="I29">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J29">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="N29">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="P29">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="Q29">
+        <v>19.32634637033656</v>
+      </c>
+      <c r="R29">
+        <v>173.937117333029</v>
+      </c>
+      <c r="S29">
+        <v>0.001022147618082124</v>
+      </c>
+      <c r="T29">
+        <v>0.001022147618082124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.391799</v>
+      </c>
+      <c r="I30">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J30">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="N30">
+        <v>1997.356019</v>
+      </c>
+      <c r="O30">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="P30">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="Q30">
+        <v>86.95134343202011</v>
+      </c>
+      <c r="R30">
+        <v>782.562090888181</v>
+      </c>
+      <c r="S30">
+        <v>0.004598753787963512</v>
+      </c>
+      <c r="T30">
+        <v>0.004598753787963513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.391799</v>
+      </c>
+      <c r="I31">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J31">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N31">
+        <v>166.530819</v>
+      </c>
+      <c r="O31">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P31">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q31">
+        <v>7.249623150375667</v>
+      </c>
+      <c r="R31">
+        <v>65.24660835338101</v>
+      </c>
+      <c r="S31">
+        <v>0.0003834240002302344</v>
+      </c>
+      <c r="T31">
+        <v>0.0003834240002302344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H32">
+        <v>7.137283</v>
+      </c>
+      <c r="I32">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J32">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.45505566666667</v>
+      </c>
+      <c r="N32">
+        <v>31.365167</v>
+      </c>
+      <c r="O32">
+        <v>0.008202258778219224</v>
+      </c>
+      <c r="P32">
+        <v>0.008202258778219226</v>
+      </c>
+      <c r="Q32">
+        <v>24.87356369125122</v>
+      </c>
+      <c r="R32">
+        <v>223.862073221261</v>
+      </c>
+      <c r="S32">
+        <v>0.00131553338603357</v>
+      </c>
+      <c r="T32">
+        <v>0.001315533386033571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H33">
+        <v>7.137283</v>
+      </c>
+      <c r="I33">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J33">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N33">
+        <v>502.283203</v>
+      </c>
+      <c r="O33">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="P33">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="Q33">
+        <v>398.3263739952721</v>
+      </c>
+      <c r="R33">
+        <v>3584.937365957449</v>
+      </c>
+      <c r="S33">
+        <v>0.02106701114616661</v>
+      </c>
+      <c r="T33">
+        <v>0.02106701114616662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H34">
+        <v>7.137283</v>
+      </c>
+      <c r="I34">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J34">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>227.495678</v>
+      </c>
+      <c r="N34">
+        <v>682.487034</v>
+      </c>
+      <c r="O34">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="P34">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="Q34">
+        <v>541.2336783876246</v>
+      </c>
+      <c r="R34">
+        <v>4871.103105488622</v>
+      </c>
+      <c r="S34">
+        <v>0.02862520957602516</v>
+      </c>
+      <c r="T34">
+        <v>0.02862520957602516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H35">
+        <v>7.137283</v>
+      </c>
+      <c r="I35">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J35">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="N35">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="P35">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="Q35">
+        <v>352.062162999688</v>
+      </c>
+      <c r="R35">
+        <v>3168.559466997192</v>
+      </c>
+      <c r="S35">
+        <v>0.01862015170541026</v>
+      </c>
+      <c r="T35">
+        <v>0.01862015170541027</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H36">
+        <v>7.137283</v>
+      </c>
+      <c r="I36">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J36">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="N36">
+        <v>1997.356019</v>
+      </c>
+      <c r="O36">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="P36">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="Q36">
+        <v>1583.966128817375</v>
+      </c>
+      <c r="R36">
+        <v>14255.69515935638</v>
+      </c>
+      <c r="S36">
+        <v>0.08377409649339987</v>
+      </c>
+      <c r="T36">
+        <v>0.08377409649339991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H37">
+        <v>7.137283</v>
+      </c>
+      <c r="I37">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J37">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N37">
+        <v>166.530819</v>
+      </c>
+      <c r="O37">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P37">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q37">
+        <v>132.0641759360863</v>
+      </c>
+      <c r="R37">
+        <v>1188.577583424777</v>
+      </c>
+      <c r="S37">
+        <v>0.006984718181096042</v>
+      </c>
+      <c r="T37">
+        <v>0.006984718181096044</v>
       </c>
     </row>
   </sheetData>
